--- a/ClientExcel/Game/SoundGroup.xlsx
+++ b/ClientExcel/Game/SoundGroup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="SoundGroup" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>物品组配置表</t>
+    <t>声音组配置表</t>
   </si>
   <si>
     <t>Id</t>
@@ -723,12 +723,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,7 +1054,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.125" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1065,107 +1062,100 @@
     <col min="1" max="16384" width="30.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
+    <row r="5" spans="2:8">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="b">
+      <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="b">
@@ -1175,21 +1165,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
+    <row r="6" spans="2:8">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="b">
+      <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="b">
@@ -1199,21 +1188,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="b">
+      <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="b">
@@ -1223,21 +1211,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    <row r="9" spans="4:4">
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
